--- a/data/output/SJFNON.xlsx
+++ b/data/output/SJFNON.xlsx
@@ -490,7 +490,7 @@
         <v>704</v>
       </c>
       <c r="F2" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G2" t="n">
         <v>719</v>
@@ -515,7 +515,7 @@
         <v>658</v>
       </c>
       <c r="F3" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G3" t="n">
         <v>673</v>
@@ -540,7 +540,7 @@
         <v>333</v>
       </c>
       <c r="F4" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G4" t="n">
         <v>344</v>
@@ -565,7 +565,7 @@
         <v>680</v>
       </c>
       <c r="F5" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G5" t="n">
         <v>695</v>
@@ -590,7 +590,7 @@
         <v>603</v>
       </c>
       <c r="F6" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G6" t="n">
         <v>617</v>
@@ -615,7 +615,7 @@
         <v>414</v>
       </c>
       <c r="F7" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G7" t="n">
         <v>426</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" t="n">
         <v>13</v>
@@ -665,7 +665,7 @@
         <v>117</v>
       </c>
       <c r="F9" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" t="n">
         <v>124</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
         <v>18</v>
@@ -715,7 +715,7 @@
         <v>208</v>
       </c>
       <c r="F11" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G11" t="n">
         <v>217</v>
@@ -740,7 +740,7 @@
         <v>402</v>
       </c>
       <c r="F12" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G12" t="n">
         <v>414</v>
@@ -765,7 +765,7 @@
         <v>458</v>
       </c>
       <c r="F13" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G13" t="n">
         <v>471</v>
@@ -790,7 +790,7 @@
         <v>399</v>
       </c>
       <c r="F14" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G14" t="n">
         <v>411</v>
@@ -815,7 +815,7 @@
         <v>695</v>
       </c>
       <c r="F15" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G15" t="n">
         <v>710</v>
@@ -840,7 +840,7 @@
         <v>331</v>
       </c>
       <c r="F16" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G16" t="n">
         <v>342</v>
@@ -865,7 +865,7 @@
         <v>1148</v>
       </c>
       <c r="F17" t="n">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="G17" t="n">
         <v>1168</v>
@@ -890,7 +890,7 @@
         <v>241</v>
       </c>
       <c r="F18" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G18" t="n">
         <v>251</v>
@@ -915,7 +915,7 @@
         <v>469</v>
       </c>
       <c r="F19" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G19" t="n">
         <v>482</v>
@@ -940,7 +940,7 @@
         <v>112</v>
       </c>
       <c r="F20" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G20" t="n">
         <v>119</v>
@@ -965,7 +965,7 @@
         <v>783</v>
       </c>
       <c r="F21" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G21" t="n">
         <v>799</v>
@@ -990,7 +990,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" t="n">
         <v>86</v>
@@ -1015,7 +1015,7 @@
         <v>1196</v>
       </c>
       <c r="F23" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G23" t="n">
         <v>1216</v>
@@ -1040,7 +1040,7 @@
         <v>787</v>
       </c>
       <c r="F24" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G24" t="n">
         <v>803</v>
@@ -1065,7 +1065,7 @@
         <v>719</v>
       </c>
       <c r="F25" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G25" t="n">
         <v>734</v>
@@ -1090,7 +1090,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="n">
         <v>45</v>
@@ -1115,7 +1115,7 @@
         <v>339</v>
       </c>
       <c r="F27" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G27" t="n">
         <v>350</v>
@@ -1140,7 +1140,7 @@
         <v>484</v>
       </c>
       <c r="F28" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G28" t="n">
         <v>497</v>
@@ -1165,7 +1165,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G29" t="n">
         <v>61</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
         <v>13</v>
@@ -1215,7 +1215,7 @@
         <v>324</v>
       </c>
       <c r="F31" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G31" t="n">
         <v>335</v>
@@ -1240,7 +1240,7 @@
         <v>909</v>
       </c>
       <c r="F32" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G32" t="n">
         <v>926</v>
@@ -1265,7 +1265,7 @@
         <v>806</v>
       </c>
       <c r="F33" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G33" t="n">
         <v>822</v>
@@ -1290,7 +1290,7 @@
         <v>1181</v>
       </c>
       <c r="F34" t="n">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G34" t="n">
         <v>1201</v>
@@ -1315,7 +1315,7 @@
         <v>82</v>
       </c>
       <c r="F35" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G35" t="n">
         <v>88</v>
@@ -1340,7 +1340,7 @@
         <v>195</v>
       </c>
       <c r="F36" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G36" t="n">
         <v>204</v>
@@ -1365,7 +1365,7 @@
         <v>343</v>
       </c>
       <c r="F37" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G37" t="n">
         <v>354</v>
@@ -1390,7 +1390,7 @@
         <v>1067</v>
       </c>
       <c r="F38" t="n">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G38" t="n">
         <v>1086</v>
@@ -1415,7 +1415,7 @@
         <v>496</v>
       </c>
       <c r="F39" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G39" t="n">
         <v>509</v>
@@ -1440,7 +1440,7 @@
         <v>1024</v>
       </c>
       <c r="F40" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G40" t="n">
         <v>1043</v>
@@ -1465,7 +1465,7 @@
         <v>184</v>
       </c>
       <c r="F41" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G41" t="n">
         <v>193</v>
@@ -1490,7 +1490,7 @@
         <v>796</v>
       </c>
       <c r="F42" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G42" t="n">
         <v>812</v>
@@ -1515,7 +1515,7 @@
         <v>509</v>
       </c>
       <c r="F43" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G43" t="n">
         <v>522</v>
@@ -1540,7 +1540,7 @@
         <v>979</v>
       </c>
       <c r="F44" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G44" t="n">
         <v>997</v>
@@ -1565,7 +1565,7 @@
         <v>882</v>
       </c>
       <c r="F45" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G45" t="n">
         <v>899</v>
@@ -1590,7 +1590,7 @@
         <v>798</v>
       </c>
       <c r="F46" t="n">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G46" t="n">
         <v>814</v>
@@ -1615,7 +1615,7 @@
         <v>110</v>
       </c>
       <c r="F47" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G47" t="n">
         <v>117</v>
@@ -1640,7 +1640,7 @@
         <v>118</v>
       </c>
       <c r="F48" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G48" t="n">
         <v>125</v>
@@ -1665,7 +1665,7 @@
         <v>162</v>
       </c>
       <c r="F49" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G49" t="n">
         <v>170</v>
@@ -1690,7 +1690,7 @@
         <v>85</v>
       </c>
       <c r="F50" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G50" t="n">
         <v>91</v>
@@ -1715,7 +1715,7 @@
         <v>400</v>
       </c>
       <c r="F51" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G51" t="n">
         <v>412</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
         <v>15</v>
@@ -1765,7 +1765,7 @@
         <v>1162</v>
       </c>
       <c r="F53" t="n">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G53" t="n">
         <v>1182</v>
@@ -1790,7 +1790,7 @@
         <v>1164</v>
       </c>
       <c r="F54" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="G54" t="n">
         <v>1184</v>
@@ -1815,7 +1815,7 @@
         <v>202</v>
       </c>
       <c r="F55" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G55" t="n">
         <v>211</v>
@@ -1840,7 +1840,7 @@
         <v>306</v>
       </c>
       <c r="F56" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G56" t="n">
         <v>317</v>
@@ -1865,7 +1865,7 @@
         <v>256</v>
       </c>
       <c r="F57" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G57" t="n">
         <v>266</v>
@@ -1890,7 +1890,7 @@
         <v>81</v>
       </c>
       <c r="F58" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G58" t="n">
         <v>87</v>
@@ -1915,7 +1915,7 @@
         <v>347</v>
       </c>
       <c r="F59" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G59" t="n">
         <v>358</v>
@@ -1940,7 +1940,7 @@
         <v>617</v>
       </c>
       <c r="F60" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G60" t="n">
         <v>631</v>
@@ -1965,7 +1965,7 @@
         <v>965</v>
       </c>
       <c r="F61" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G61" t="n">
         <v>983</v>
@@ -1990,7 +1990,7 @@
         <v>1031</v>
       </c>
       <c r="F62" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G62" t="n">
         <v>1050</v>
@@ -2015,7 +2015,7 @@
         <v>406</v>
       </c>
       <c r="F63" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G63" t="n">
         <v>418</v>
@@ -2040,7 +2040,7 @@
         <v>617</v>
       </c>
       <c r="F64" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G64" t="n">
         <v>631</v>
@@ -2065,7 +2065,7 @@
         <v>116</v>
       </c>
       <c r="F65" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G65" t="n">
         <v>123</v>
@@ -2090,7 +2090,7 @@
         <v>112</v>
       </c>
       <c r="F66" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G66" t="n">
         <v>119</v>
@@ -2115,7 +2115,7 @@
         <v>571</v>
       </c>
       <c r="F67" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G67" t="n">
         <v>585</v>
@@ -2140,7 +2140,7 @@
         <v>68</v>
       </c>
       <c r="F68" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G68" t="n">
         <v>74</v>
@@ -2165,7 +2165,7 @@
         <v>252</v>
       </c>
       <c r="F69" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G69" t="n">
         <v>262</v>
@@ -2190,7 +2190,7 @@
         <v>321</v>
       </c>
       <c r="F70" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G70" t="n">
         <v>332</v>
@@ -2215,7 +2215,7 @@
         <v>88</v>
       </c>
       <c r="F71" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G71" t="n">
         <v>94</v>
@@ -2240,7 +2240,7 @@
         <v>195</v>
       </c>
       <c r="F72" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G72" t="n">
         <v>204</v>
@@ -2265,7 +2265,7 @@
         <v>125</v>
       </c>
       <c r="F73" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>132</v>
@@ -2290,7 +2290,7 @@
         <v>1090</v>
       </c>
       <c r="F74" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="G74" t="n">
         <v>1109</v>
@@ -2315,7 +2315,7 @@
         <v>457</v>
       </c>
       <c r="F75" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G75" t="n">
         <v>470</v>
@@ -2340,7 +2340,7 @@
         <v>1048</v>
       </c>
       <c r="F76" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G76" t="n">
         <v>1067</v>
@@ -2365,7 +2365,7 @@
         <v>709</v>
       </c>
       <c r="F77" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G77" t="n">
         <v>724</v>
@@ -2390,7 +2390,7 @@
         <v>206</v>
       </c>
       <c r="F78" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G78" t="n">
         <v>215</v>
@@ -2415,7 +2415,7 @@
         <v>480</v>
       </c>
       <c r="F79" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G79" t="n">
         <v>493</v>
@@ -2440,7 +2440,7 @@
         <v>262</v>
       </c>
       <c r="F80" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G80" t="n">
         <v>272</v>
@@ -2465,7 +2465,7 @@
         <v>669</v>
       </c>
       <c r="F81" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G81" t="n">
         <v>684</v>
@@ -2490,7 +2490,7 @@
         <v>973</v>
       </c>
       <c r="F82" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G82" t="n">
         <v>991</v>
@@ -2515,7 +2515,7 @@
         <v>590</v>
       </c>
       <c r="F83" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G83" t="n">
         <v>604</v>
@@ -2540,7 +2540,7 @@
         <v>724</v>
       </c>
       <c r="F84" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G84" t="n">
         <v>739</v>
@@ -2565,7 +2565,7 @@
         <v>188</v>
       </c>
       <c r="F85" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G85" t="n">
         <v>197</v>
@@ -2590,7 +2590,7 @@
         <v>54</v>
       </c>
       <c r="F86" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G86" t="n">
         <v>59</v>
@@ -2615,7 +2615,7 @@
         <v>53</v>
       </c>
       <c r="F87" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G87" t="n">
         <v>58</v>
@@ -2640,7 +2640,7 @@
         <v>314</v>
       </c>
       <c r="F88" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G88" t="n">
         <v>325</v>
@@ -2665,7 +2665,7 @@
         <v>54</v>
       </c>
       <c r="F89" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G89" t="n">
         <v>59</v>
@@ -2690,7 +2690,7 @@
         <v>1072</v>
       </c>
       <c r="F90" t="n">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G90" t="n">
         <v>1091</v>
@@ -2715,7 +2715,7 @@
         <v>868</v>
       </c>
       <c r="F91" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G91" t="n">
         <v>885</v>
@@ -2740,7 +2740,7 @@
         <v>1062</v>
       </c>
       <c r="F92" t="n">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G92" t="n">
         <v>1081</v>
@@ -2765,7 +2765,7 @@
         <v>250</v>
       </c>
       <c r="F93" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G93" t="n">
         <v>260</v>
@@ -2790,7 +2790,7 @@
         <v>891</v>
       </c>
       <c r="F94" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G94" t="n">
         <v>908</v>
@@ -2815,7 +2815,7 @@
         <v>151</v>
       </c>
       <c r="F95" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>159</v>
@@ -2840,7 +2840,7 @@
         <v>606</v>
       </c>
       <c r="F96" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G96" t="n">
         <v>620</v>
@@ -2865,7 +2865,7 @@
         <v>889</v>
       </c>
       <c r="F97" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G97" t="n">
         <v>906</v>
@@ -2890,7 +2890,7 @@
         <v>906</v>
       </c>
       <c r="F98" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G98" t="n">
         <v>923</v>
@@ -2915,7 +2915,7 @@
         <v>585</v>
       </c>
       <c r="F99" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G99" t="n">
         <v>599</v>
@@ -2940,7 +2940,7 @@
         <v>252</v>
       </c>
       <c r="F100" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G100" t="n">
         <v>262</v>
@@ -2965,7 +2965,7 @@
         <v>470</v>
       </c>
       <c r="F101" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G101" t="n">
         <v>483</v>
